--- a/数据整理/stocks/港股/06618-京东健康.xlsx
+++ b/数据整理/stocks/港股/06618-京东健康.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160717</t>
+          <t>006614</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>94.74</t>
+          <t>5.10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1632</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006614</t>
+          <t>159960</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+          <t>平安港股通恒生中国企业ETF</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.78</t>
+          <t>5.40</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>97.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1177</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>159954</t>
+          <t>501311</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>南方恒生中国企业ETF</t>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>100.44</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>501311</t>
+          <t>159954</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+          <t>南方恒生中国企业ETF</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>94.78</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
+          <t>100.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -604,25 +654,35 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>159960</t>
+          <t>160717</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>平安港股通恒生中国企业ETF</t>
+          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>97.70</t>
+          <t>1.97</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>10</v>
       </c>
     </row>
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -688,15 +758,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>17.12</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>94.77</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2.99</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5119</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>8</v>
       </c>
     </row>
@@ -716,15 +796,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>94.77</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>2.99</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1525</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>8</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06618-京东健康.xlsx
+++ b/数据整理/stocks/港股/06618-京东健康.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -821,4 +822,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4976</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159856</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>工银瑞信中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1640</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1420</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>517200</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006786</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0291</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006787</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康中证港股通大消费主题指数C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06618-京东健康.xlsx
+++ b/数据整理/stocks/港股/06618-京东健康.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1144,4 +1145,858 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513180</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>32.39</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4090</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>16.64</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7288</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012379</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>63.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2759</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.55</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1934</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1837</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>513860</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>海富通中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1643</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>513980</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1413</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159856</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.30</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1273</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>513580</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1253</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159740</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159741</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实恒生科技交易型开放式指数证券投资基金（QDII）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>99.69</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011651</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0938</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159742</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时恒生科技交易型开放式指数证券投资基金(QDII)</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>96.11</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0885</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012380</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>63.72</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0617</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>517200</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>嘉实中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.88</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012371</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011652</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商港股通核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004266</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012372</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.98</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>080006</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长盛环球行业混合(QDII)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.43</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010754</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商沪港深科技创新主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.20</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06618-京东健康.xlsx
+++ b/数据整理/stocks/港股/06618-京东健康.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1999,4 +2000,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>21</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/港股/06618-京东健康.xlsx
+++ b/数据整理/stocks/港股/06618-京东健康.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2008,7 +2009,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2019,17 +2020,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2039,14 +2060,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>21</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.97</v>
+          <t>012379</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>74.92</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3360</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -2055,14 +2098,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.98</v>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2483</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2071,14 +2136,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.66</v>
+          <t>517050</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>97.48</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2082</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2087,13 +2174,531 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.19</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1965</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>513860</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海富通中证港股通科技交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1732</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159892</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1640</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159856</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.30</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1485</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159792</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国中证港股通互联网ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1380</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159729</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深互联网交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>95.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.96</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0700</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012380</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>74.92</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>517200</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012371</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012372</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.71</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>14</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>21</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.48</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06618-京东健康.xlsx
+++ b/数据整理/stocks/港股/06618-京东健康.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2597,7 +2598,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2608,17 +2609,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2628,14 +2649,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>14</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.97</v>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>23.35</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4477</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2644,14 +2687,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>21</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.97</v>
+          <t>011891</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2121</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2660,14 +2725,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>7</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.98</v>
+          <t>011157</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1894</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2676,14 +2763,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.66</v>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1763</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -2692,13 +2801,661 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>517050</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.51</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1749</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>159792</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国中证港股通互联网ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1587</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>012379</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.95</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1426</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159856</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>97.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1359</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>159892</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1024</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>517200</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>嘉实中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0534</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003993</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159729</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深互联网交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>97.96</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011158</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.35</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>72.90</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>012380</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>73.95</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0341</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012371</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012372</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>95.04</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011892</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>14</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.48</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06618-京东健康.xlsx
+++ b/数据整理/stocks/港股/06618-京东健康.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3338,7 +3339,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3349,17 +3350,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3369,14 +3390,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>18</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.05</v>
+          <t>164906</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银施罗德中证海外中国互联网指数QDII-LOF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>120.05</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.8980</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -3385,14 +3428,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>14</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.97</v>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>60.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.78</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.4684</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -3401,14 +3466,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>21</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.97</v>
+          <t>010115</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1044</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -3417,14 +3504,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.98</v>
+          <t>159792</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>富国中证港股通互联网ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.50</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7044</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -3433,14 +3542,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.66</v>
+          <t>517050</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>97.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2488</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -3449,13 +3580,905 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>011891</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2372</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2228</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011412</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>易方达远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2161</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011157</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2011</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>159856</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>工银瑞信中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>98.73</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1898</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>159892</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>96.94</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1365</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>012379</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1319</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>517200</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.12</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>003993</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159729</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深互联网交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>97.13</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011158</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.19</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011892</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>易方达先锋成长混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012380</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合型证券投资基金（QDII）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0421</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004292</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>鹏华沪深港互联网股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0371</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012371</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>012372</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.95</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013920</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>003279</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>融通沪港深智慧生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013921</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>兴华创新医疗6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>25</v>
+      </c>
+      <c r="D2" t="n">
+        <v>13.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.97</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>21</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.97</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>7</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.48</v>
       </c>
     </row>

--- a/数据整理/stocks/港股/06618-京东健康.xlsx
+++ b/数据整理/stocks/港股/06618-京东健康.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D2" t="n">
-        <v>13.23</v>
+        <v>9.550000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D3" t="n">
-        <v>3.05</v>
+        <v>13.23</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D4" t="n">
-        <v>1.97</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
-        <v>3.97</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D6" t="n">
-        <v>0.98</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>0.66</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>5</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -600,6 +617,1164 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>164906</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银施罗德中证海外中国互联网指数（QDII-LOF）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>97.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.7998</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.1460</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159792</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证港股通互联网ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8588</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>517050</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>96.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2020</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.13</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1814</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>513770</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝中证港股通互联网ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.21</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1778</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159856</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1513</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>159892</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>99.13</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1240</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>513280</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>100.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1200</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>513860</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>海富通中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1009</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012379</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1003</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>517200</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>嘉实中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>97.71</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0545</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>513150</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>96.19</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>513200</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>易方达中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>513020</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>159729</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>96.75</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0443</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>82.80</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>003993</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006537</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>恒生前海港股通精选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0370</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012380</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.48</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159776</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>银华中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0314</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>159718</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>平安中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0313</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004292</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏华沪深港互联网股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159793</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>平安中证沪港深线上消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>95.11</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>159751</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>517280</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深线上消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>98.98</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012371</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0190</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012372</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>006477</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中邮沪港深精选混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.21</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1605,7 +2780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2345,7 +3520,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2933,7 +4108,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3787,7 +4962,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4109,7 +5284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4241,7 +5416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/港股/06618-京东健康.xlsx
+++ b/数据整理/stocks/港股/06618-京东健康.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>29</v>
+        <v>58</v>
       </c>
       <c r="D2" t="n">
-        <v>9.550000000000001</v>
+        <v>26.13</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D3" t="n">
-        <v>13.23</v>
+        <v>9.550000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="D4" t="n">
-        <v>3.05</v>
+        <v>13.23</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D5" t="n">
-        <v>1.97</v>
+        <v>3.05</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
-        <v>3.97</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="D7" t="n">
-        <v>0.98</v>
+        <v>3.97</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D8" t="n">
-        <v>0.66</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>5</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.48</v>
       </c>
     </row>
@@ -616,7 +633,2511 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1632</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159960</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>平安港股通恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.70</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1177</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0998</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>159954</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方恒生中国企业ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>100.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160717</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.74</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>513180</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>168.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.27</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.4781</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>513060</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时恒生医疗保健ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>69.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.5260</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159792</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>富国中证港股通互联网ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>38.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.2234</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>513010</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>易方达恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>39.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.8060</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>159740</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大成恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>17.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.8100</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>513980</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>景顺长城中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7055</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>159892</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4695</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501311</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>18.19</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.4657</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006614</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实恒生港股通新经济指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.73</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.4283</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>513580</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.11</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>95.72</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.4218</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012805</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发恒生科技指数（QDII）C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4191</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>159636</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信国证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>98.28</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4107</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159742</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3879</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>513770</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华宝中证港股通互联网ETF</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3375</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>513700</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.37</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.02</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3047</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>517050</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>97.49</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2508</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>159741</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>嘉实恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>99.83</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2246</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>513260</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2132</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012804</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发恒生科技指数（QDII）A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.46</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2035</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159856</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>工银瑞信中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1909</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>513860</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>海富通中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>96.29</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1574</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>900008</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>86.78</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1305</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>513890</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>上投摩根恒生科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>97.27</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1300</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>513200</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>易方达中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>95.67</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.22</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1220</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>513280</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富恒生香港上市生物科技ETF（QDII）</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1138</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011157</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1014</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>012379</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0995</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>513020</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国泰中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0930</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011924</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>嘉实港股互联网产业核心资产混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0875</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>517200</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>嘉实中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.65</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>003993</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>前海开源沪港深核心驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>72.10</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0646</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159776</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>银华中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011925</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实港股互联网产业核心资产混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>159729</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深互联网ETF</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>96.74</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>513150</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>97.23</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>900078</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中信证券稳健回报混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>86.78</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0482</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>159718</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>平安中证港股通医药卫生综合ETF</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0464</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>513380</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>广发恒生科技（QDII-ETF）</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007151</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>前海开源沪港深聚瑞混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>012380</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>创金合信港股互联网3个月持有期混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>900027</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中信证券信远一年混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0343</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>159751</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>鹏华中证港股通科技ETF</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>95.29</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011158</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>弘毅远方港股通智选领航混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012371</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0256</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012372</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>西藏东财中证沪港深互联网指数C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0209</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159793</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>平安中证沪港深线上消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>96.85</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0207</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>517280</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>天弘中证沪港深线上消费主题ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>860008</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>光大阳光生活18个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>513320</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>易方达恒生港股通新经济ETF</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>517990</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>招商中证沪港深500医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>97.39</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>860060</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>光大阳光生活18个月持有期混合B</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>015884</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中欧港股数字经济混合（QDII）A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>005707</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>015885</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中欧港股数字经济混合（QDII）C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>860061</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>光大阳光生活18个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>900077</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中信证券信远一年混合B</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>014163</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>富国港股通量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>900087</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中信证券信远一年混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1774,7 +4295,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2780,7 +5301,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3520,7 +6041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4108,7 +6629,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4962,7 +7483,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5284,7 +7805,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5414,250 +7935,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>006614</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>嘉实恒生港股通新经济指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.10</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.78</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1632</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>159960</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>平安港股通恒生中国企业ETF</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>5.40</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>97.70</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.18</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1177</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>501311</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>嘉实恒生港股通新经济指数（LOF）A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.78</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.20</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0998</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>159954</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>南方恒生中国企业ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>100.44</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.25</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0508</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>160717</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>嘉实恒生中国企业指数(QDII-LOF)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.97</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.74</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0459</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>